--- a/data_raw/map_for_compilation_OM14.xlsx
+++ b/data_raw/map_for_compilation_OM14.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/Oman_fieldwork/Samail_16S_compilation/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846A393-B0B5-8F41-A943-41268ECA2DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42C866D-A46D-DF4A-B287-7E732C828472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="12960" windowWidth="38180" windowHeight="8640" xr2:uid="{8FA938D1-D892-E848-A49F-8DF12B7A5192}"/>
   </bookViews>
@@ -101,21 +101,9 @@
     <t>forward_linker_primer_sequence</t>
   </si>
   <si>
-    <t>NSHQ14.2014</t>
-  </si>
-  <si>
-    <t>TCTCGCACTGGA</t>
-  </si>
-  <si>
     <t>CCGGACTACHVGGGTWTCTAAT</t>
   </si>
   <si>
-    <t>NSHQ4.2014</t>
-  </si>
-  <si>
-    <t>CCTTTCACCTGT</t>
-  </si>
-  <si>
     <t>NSHQ14</t>
   </si>
   <si>
@@ -135,6 +123,18 @@
   </si>
   <si>
     <t>DNA</t>
+  </si>
+  <si>
+    <t>NSHQ14_2014</t>
+  </si>
+  <si>
+    <t>NSHQ4_2014</t>
+  </si>
+  <si>
+    <t>ACAGGTGAAAGG</t>
+  </si>
+  <si>
+    <t>TCCAGTGCGAGA</t>
   </si>
 </sst>
 </file>
@@ -514,10 +514,10 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
     <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -594,27 +594,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="2">
         <v>2014</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4">
         <v>18</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R2" s="5">
         <v>304</v>
@@ -656,33 +656,33 @@
         <v>1</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V2" s="4">
         <v>7.7</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
         <v>2014</v>
@@ -691,28 +691,28 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K3" s="4">
         <v>18</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R3" s="5">
         <v>304</v>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V3" s="4">
         <v>2.6</v>
